--- a/excel/腾讯视频道具表.xlsx
+++ b/excel/腾讯视频道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20775" windowHeight="9480"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="93">
   <si>
     <t>APPID</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>濡湿之梦</t>
+  </si>
+  <si>
+    <t>拳拳惊喜</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -298,8 +304,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,24 +315,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,16 +330,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +352,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -376,17 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,20 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -422,9 +412,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,23 +435,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -474,25 +480,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,13 +606,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,139 +642,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,45 +685,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +713,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,177 +786,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,9 +947,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1314,7 +1317,7 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
@@ -1333,7 +1336,7 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
@@ -1352,7 +1355,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2"/>
@@ -1371,7 +1374,7 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2"/>
@@ -1390,7 +1393,7 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2"/>
@@ -1409,7 +1412,7 @@
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2"/>
@@ -1428,7 +1431,7 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2"/>
@@ -1447,7 +1450,7 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2"/>
@@ -1466,7 +1469,7 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2"/>
@@ -1485,7 +1488,7 @@
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2">
@@ -1503,7 +1506,7 @@
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2">
@@ -1521,7 +1524,7 @@
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2">
@@ -1539,7 +1542,7 @@
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2">
@@ -1557,7 +1560,7 @@
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2">
@@ -1575,7 +1578,7 @@
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2">
@@ -1593,7 +1596,7 @@
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="2">
@@ -1611,7 +1614,7 @@
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="2">
@@ -1629,7 +1632,7 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="2">
@@ -1647,7 +1650,7 @@
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="2">
@@ -1665,7 +1668,7 @@
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="2">
@@ -1683,7 +1686,7 @@
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2">
@@ -1701,7 +1704,7 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="2">
@@ -1719,7 +1722,7 @@
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="2">
@@ -1737,7 +1740,7 @@
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="2">
@@ -1755,7 +1758,7 @@
       <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="2">
@@ -1767,13 +1770,13 @@
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>101002</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="2">
@@ -1785,13 +1788,13 @@
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>101003</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="2">
@@ -1803,13 +1806,13 @@
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>101004</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="2">
@@ -1821,13 +1824,13 @@
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>101005</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="2">
@@ -1839,13 +1842,13 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>101006</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="2">
@@ -1857,13 +1860,13 @@
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>101007</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="2">
@@ -1875,13 +1878,13 @@
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>101008</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="2">
@@ -1893,13 +1896,13 @@
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>101009</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="2">
@@ -1911,13 +1914,13 @@
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>101010</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="2">
@@ -1929,17 +1932,17 @@
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>101011</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" ref="F36:F67" si="1">B36</f>
+        <f t="shared" ref="F36:F82" si="1">B36</f>
         <v>101011</v>
       </c>
     </row>
@@ -1947,13 +1950,13 @@
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>101012</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="2">
@@ -1965,13 +1968,13 @@
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>101013</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="2">
@@ -1983,13 +1986,13 @@
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>101014</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="2">
@@ -2001,13 +2004,13 @@
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>101015</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="2">
@@ -2019,13 +2022,13 @@
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>101016</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="2">
@@ -2037,13 +2040,13 @@
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>101017</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="2">
@@ -2055,13 +2058,13 @@
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>102001</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F43" s="2">
@@ -2073,13 +2076,13 @@
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>102002</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F44" s="2">
@@ -2091,13 +2094,13 @@
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>102003</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="2">
@@ -2109,13 +2112,13 @@
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>102004</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F46" s="2">
@@ -2127,13 +2130,13 @@
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>102005</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F47" s="2">
@@ -2145,13 +2148,13 @@
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>102006</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="2">
@@ -2163,13 +2166,13 @@
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>102007</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F49" s="2">
@@ -2181,13 +2184,13 @@
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>102008</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="2">
@@ -2199,13 +2202,13 @@
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>102009</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F51" s="2">
@@ -2217,13 +2220,13 @@
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>102010</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="2">
@@ -2235,13 +2238,13 @@
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>102011</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="2">
@@ -2253,13 +2256,13 @@
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>102012</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="2">
@@ -2271,13 +2274,13 @@
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>102013</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="2">
@@ -2289,13 +2292,13 @@
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>102014</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F56" s="2">
@@ -2307,13 +2310,13 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>102015</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="2">
@@ -2325,13 +2328,13 @@
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>102016</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="2">
@@ -2343,13 +2346,13 @@
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>102017</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F59" s="2">
@@ -2361,13 +2364,13 @@
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>102018</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F60" s="2">
@@ -2379,13 +2382,13 @@
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>103001</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F61" s="2">
@@ -2397,13 +2400,13 @@
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>103002</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F62" s="2">
@@ -2415,13 +2418,13 @@
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>103003</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="2">
@@ -2433,13 +2436,13 @@
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>103004</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="2">
@@ -2451,13 +2454,13 @@
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>103005</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F65" s="2">
@@ -2469,13 +2472,13 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>103006</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F66" s="2">
@@ -2487,13 +2490,13 @@
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>103007</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F67" s="2">
@@ -2505,17 +2508,17 @@
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>103008</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F68" s="2">
-        <f>B68</f>
+        <f t="shared" si="1"/>
         <v>103008</v>
       </c>
     </row>
@@ -2523,17 +2526,17 @@
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>103009</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F69" s="2">
-        <f>B69</f>
+        <f t="shared" si="1"/>
         <v>103009</v>
       </c>
     </row>
@@ -2541,17 +2544,17 @@
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>103010</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F70" s="2">
-        <f>B70</f>
+        <f t="shared" si="1"/>
         <v>103010</v>
       </c>
     </row>
@@ -2559,17 +2562,17 @@
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>103011</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F71" s="2">
-        <f>B71</f>
+        <f t="shared" si="1"/>
         <v>103011</v>
       </c>
     </row>
@@ -2577,17 +2580,17 @@
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>103012</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F72" s="2">
-        <f>B72</f>
+        <f t="shared" si="1"/>
         <v>103012</v>
       </c>
     </row>
@@ -2595,17 +2598,17 @@
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>103013</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="2">
-        <f>B73</f>
+        <f t="shared" si="1"/>
         <v>103013</v>
       </c>
     </row>
@@ -2613,17 +2616,17 @@
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>103014</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F74" s="2">
-        <f>B74</f>
+        <f t="shared" si="1"/>
         <v>103014</v>
       </c>
     </row>
@@ -2631,17 +2634,17 @@
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>103015</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F75" s="2">
-        <f>B75</f>
+        <f t="shared" si="1"/>
         <v>103015</v>
       </c>
     </row>
@@ -2649,17 +2652,17 @@
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>103016</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F76" s="2">
-        <f>B76</f>
+        <f t="shared" si="1"/>
         <v>103016</v>
       </c>
     </row>
@@ -2667,17 +2670,17 @@
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>103017</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F77" s="2">
-        <f>B77</f>
+        <f t="shared" si="1"/>
         <v>103017</v>
       </c>
     </row>
@@ -2685,17 +2688,17 @@
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>103018</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F78" s="2">
-        <f>B78</f>
+        <f t="shared" si="1"/>
         <v>103018</v>
       </c>
     </row>
@@ -2703,17 +2706,17 @@
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>103019</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F79" s="2">
-        <f>B79</f>
+        <f t="shared" si="1"/>
         <v>103019</v>
       </c>
     </row>
@@ -2721,17 +2724,17 @@
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>103020</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F80" s="2">
-        <f>B80</f>
+        <f t="shared" si="1"/>
         <v>103020</v>
       </c>
     </row>
@@ -2739,18 +2742,36 @@
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>103021</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F81" s="2">
-        <f>B81</f>
+        <f t="shared" si="1"/>
         <v>103021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="5">
+        <v>103022</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="1"/>
+        <v>103022</v>
       </c>
     </row>
   </sheetData>
